--- a/com.sofi/src/test/resources/test_data.xlsx
+++ b/com.sofi/src/test/resources/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashar\IdeaProjects\SeleniumBootcampWinterWeekend2022\com.sofi\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802CBA6A-6AB2-4664-8ECB-8FFFD25BE47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398CB5F0-78D2-427E-8697-3675CE536BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="628" firstSheet="3" activeTab="9" xr2:uid="{7D775343-6CF7-4D85-BA2B-E0C06A58AE89}"/>
   </bookViews>
@@ -23,9 +23,6 @@
     <sheet name="AsiaMarket" sheetId="8" r:id="rId8"/>
     <sheet name="FXMarket" sheetId="9" r:id="rId9"/>
     <sheet name="SoFi" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet2" sheetId="11" r:id="rId11"/>
-    <sheet name="Sheet4" sheetId="12" r:id="rId12"/>
-    <sheet name="Sheet5" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="147">
   <si>
     <t>City Name</t>
   </si>
@@ -485,6 +482,9 @@
   </si>
   <si>
     <t>WSJ Dollar Index</t>
+  </si>
+  <si>
+    <t>Length of video played</t>
   </si>
 </sst>
 </file>
@@ -1073,49 +1073,38 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118B9C6B-8AE9-42E8-98F4-70336A109C11}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFD5570-41D7-455F-B3FE-EEFD1D0D17A1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E71A9B7-B52F-4091-8BD8-D810587A1622}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A3209E-5CD4-4B8D-99B4-9706FE01093E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
